--- a/Esperanza de vida RD.xlsx
+++ b/Esperanza de vida RD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2844B8B-1303-46D6-955A-4C88100A9756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B4835A-5FBE-4E2D-A7C1-0A630B873B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esperanza de Vida" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="742">
-  <si>
-    <t>República Dominicana - Esperanza de vida al nacer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="733">
   <si>
     <t>Fecha</t>
   </si>
@@ -578,9 +575,6 @@
     <t>50,26</t>
   </si>
   <si>
-    <t>República Dominicana - Mortalidad</t>
-  </si>
-  <si>
     <t>Muertes</t>
   </si>
   <si>
@@ -764,9 +758,6 @@
     <t>72,89</t>
   </si>
   <si>
-    <t>República Dominicana - Homicidios Intencionados</t>
-  </si>
-  <si>
     <t>Número de Homicidios</t>
   </si>
   <si>
@@ -878,9 +869,6 @@
     <t>12,48</t>
   </si>
   <si>
-    <t>República Dominicana - Suicidios</t>
-  </si>
-  <si>
     <t>Suicidios mujeres</t>
   </si>
   <si>
@@ -1037,9 +1025,6 @@
     <t>6,9</t>
   </si>
   <si>
-    <t>República Dominicana - Población</t>
-  </si>
-  <si>
     <t>Densidad</t>
   </si>
   <si>
@@ -1610,9 +1595,6 @@
     <t>3.298.021</t>
   </si>
   <si>
-    <t>República Dominicana - Riesgo de pobreza</t>
-  </si>
-  <si>
     <t>% Riesgo Pobreza</t>
   </si>
   <si>
@@ -1676,9 +1658,6 @@
     <t>32,1%</t>
   </si>
   <si>
-    <t>República Dominicana - Natalidad</t>
-  </si>
-  <si>
     <t>Tasa Natalidad</t>
   </si>
   <si>
@@ -2042,9 +2021,6 @@
     <t>7,56</t>
   </si>
   <si>
-    <t>República Dominicana - Índice global de envejecimiento</t>
-  </si>
-  <si>
     <t>Ranking</t>
   </si>
   <si>
@@ -2112,9 +2088,6 @@
   </si>
   <si>
     <t>22,30</t>
-  </si>
-  <si>
-    <t>República Dominicana - Índice de Desarrollo Humano</t>
   </si>
   <si>
     <t>IDH</t>
@@ -2294,25 +2267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2594,5240 +2555,5132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.73046875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>241</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="2">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>1981</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>1980</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>1979</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>1978</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>1977</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>1976</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>1975</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>1974</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>1960</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C64" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E739772E-8EAC-4829-A8CD-00BFE807ED4C}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2">
+        <v>74.245000000000005</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2">
+        <v>71.058000000000007</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="2">
-        <v>74.245000000000005</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2">
+        <v>62.21</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="2">
-        <v>71.058000000000007</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="2">
+        <v>62.212000000000003</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="2">
-        <v>62.21</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2">
+        <v>61.338999999999999</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="2">
-        <v>62.212000000000003</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2">
+        <v>60.087000000000003</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="2">
-        <v>61.338999999999999</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="2">
+        <v>58.712000000000003</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="2">
-        <v>60.087000000000003</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2">
+        <v>57.588000000000001</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="2">
-        <v>58.712000000000003</v>
-      </c>
-      <c r="C9" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2">
+        <v>56.781999999999996</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="2">
-        <v>57.588000000000001</v>
-      </c>
-      <c r="C10" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="2">
+        <v>56.168999999999997</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>55.947000000000003</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="2">
-        <v>56.781999999999996</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="2">
+        <v>55.177</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="2">
-        <v>56.168999999999997</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="2">
-        <v>55.947000000000003</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2">
+        <v>54.695</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="2">
+        <v>54.112000000000002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="2">
+        <v>53.75</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2">
-        <v>55.177</v>
-      </c>
-      <c r="C14" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="2">
+        <v>53.274000000000001</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="2">
-        <v>54.695</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="2">
-        <v>54.112000000000002</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B17" s="2">
-        <v>53.75</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="2">
+        <v>53.207000000000001</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="2">
-        <v>53.274000000000001</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="2">
+        <v>53.936</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B19" s="2">
-        <v>53.207000000000001</v>
-      </c>
-      <c r="C19" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="2">
+        <v>53.265999999999998</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="2">
+        <v>53.511000000000003</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B20" s="2">
-        <v>53.936</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>52.789000000000001</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>51.807000000000002</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B21" s="2">
-        <v>53.265999999999998</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B22" s="2">
-        <v>53.511000000000003</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B23" s="2">
-        <v>52.789000000000001</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B24" s="2">
-        <v>51.807000000000002</v>
+        <v>50.417000000000002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B25" s="2">
-        <v>50.417000000000002</v>
+        <v>49.116</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B26" s="2">
-        <v>49.116</v>
+        <v>47.158999999999999</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B27" s="2">
-        <v>47.158999999999999</v>
+        <v>45.676000000000002</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B28" s="2">
-        <v>45.676000000000002</v>
+        <v>44.256</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42.978999999999999</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44.256</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42.768000000000001</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B30" s="2">
-        <v>42.978999999999999</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42.701000000000001</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B31" s="2">
-        <v>42.768000000000001</v>
-      </c>
-      <c r="C31" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42.872999999999998</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B32" s="2">
-        <v>42.701000000000001</v>
-      </c>
-      <c r="C32" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43.262999999999998</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B33" s="2">
-        <v>42.872999999999998</v>
-      </c>
-      <c r="C33" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43.674999999999997</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B34" s="2">
-        <v>43.262999999999998</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44.054000000000002</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>1989</v>
-      </c>
-      <c r="B35" s="2">
-        <v>43.674999999999997</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44.536000000000001</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45.179000000000002</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>1988</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44.054000000000002</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45.912999999999997</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>1987</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44.536000000000001</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>1986</v>
-      </c>
-      <c r="B38" s="2">
-        <v>45.179000000000002</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B39" s="2">
+        <v>46.664000000000001</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>1985</v>
-      </c>
-      <c r="B39" s="2">
-        <v>45.912999999999997</v>
-      </c>
-      <c r="C39" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="2">
+        <v>47.284999999999997</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>1984</v>
-      </c>
-      <c r="B40" s="2">
-        <v>46.664000000000001</v>
-      </c>
-      <c r="C40" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B41" s="2">
+        <v>47.825000000000003</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>1983</v>
-      </c>
-      <c r="B41" s="2">
-        <v>47.284999999999997</v>
-      </c>
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B42" s="2">
+        <v>48.497</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B42" s="2">
-        <v>47.825000000000003</v>
-      </c>
-      <c r="C42" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B43" s="2">
+        <v>49.24</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>1981</v>
-      </c>
-      <c r="B43" s="2">
-        <v>48.497</v>
-      </c>
-      <c r="C43" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B44" s="2">
+        <v>51.572000000000003</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>1980</v>
-      </c>
-      <c r="B44" s="2">
-        <v>49.24</v>
-      </c>
-      <c r="C44" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B45" s="2">
+        <v>50.101999999999997</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>1979</v>
-      </c>
-      <c r="B45" s="2">
-        <v>51.572000000000003</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B46" s="2">
+        <v>50.195999999999998</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>1978</v>
-      </c>
-      <c r="B46" s="2">
-        <v>50.101999999999997</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B47" s="2">
+        <v>50.343000000000004</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>1977</v>
-      </c>
-      <c r="B47" s="2">
-        <v>50.195999999999998</v>
-      </c>
-      <c r="C47" s="2" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B48" s="2">
+        <v>50.543999999999997</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>1976</v>
-      </c>
-      <c r="B48" s="2">
-        <v>50.343000000000004</v>
-      </c>
-      <c r="C48" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B49" s="2">
+        <v>50.820999999999998</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>1975</v>
-      </c>
-      <c r="B49" s="2">
-        <v>50.543999999999997</v>
-      </c>
-      <c r="C49" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B50" s="2">
+        <v>51.024999999999999</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>1974</v>
-      </c>
-      <c r="B50" s="2">
-        <v>50.820999999999998</v>
-      </c>
-      <c r="C50" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>1972</v>
+      </c>
+      <c r="B51" s="2">
+        <v>51.066000000000003</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>1973</v>
-      </c>
-      <c r="B51" s="2">
-        <v>51.024999999999999</v>
-      </c>
-      <c r="C51" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>1971</v>
+      </c>
+      <c r="B52" s="2">
+        <v>51.081000000000003</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>1972</v>
-      </c>
-      <c r="B52" s="2">
-        <v>51.066000000000003</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B53" s="2">
+        <v>51.436999999999998</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>1971</v>
-      </c>
-      <c r="B53" s="2">
-        <v>51.081000000000003</v>
-      </c>
-      <c r="C53" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>1969</v>
+      </c>
+      <c r="B54" s="2">
+        <v>52.17</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>1970</v>
-      </c>
-      <c r="B54" s="2">
-        <v>51.436999999999998</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>1968</v>
+      </c>
+      <c r="B55" s="2">
+        <v>52.941000000000003</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>1969</v>
-      </c>
-      <c r="B55" s="2">
-        <v>52.17</v>
-      </c>
-      <c r="C55" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B56" s="2">
+        <v>53.686999999999998</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>1968</v>
-      </c>
-      <c r="B56" s="2">
-        <v>52.941000000000003</v>
-      </c>
-      <c r="C56" s="2" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B57" s="2">
+        <v>54.3</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>1967</v>
-      </c>
-      <c r="B57" s="2">
-        <v>53.686999999999998</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>1965</v>
+      </c>
+      <c r="B58" s="2">
+        <v>58.564999999999998</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>1966</v>
-      </c>
-      <c r="B58" s="2">
-        <v>54.3</v>
-      </c>
-      <c r="C58" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B59" s="2">
+        <v>54.997999999999998</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>1965</v>
-      </c>
-      <c r="B59" s="2">
-        <v>58.564999999999998</v>
-      </c>
-      <c r="C59" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>1963</v>
+      </c>
+      <c r="B60" s="2">
+        <v>55.704000000000001</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
-        <v>1964</v>
-      </c>
-      <c r="B60" s="2">
-        <v>54.997999999999998</v>
-      </c>
-      <c r="C60" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B61" s="2">
+        <v>55.515000000000001</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
-        <v>1963</v>
-      </c>
-      <c r="B61" s="2">
-        <v>55.704000000000001</v>
-      </c>
-      <c r="C61" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>1961</v>
+      </c>
+      <c r="B62" s="2">
+        <v>55.658999999999999</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
-        <v>1962</v>
-      </c>
-      <c r="B62" s="2">
-        <v>55.515000000000001</v>
-      </c>
-      <c r="C62" s="2" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B63" s="2">
+        <v>55.716999999999999</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
-        <v>1961</v>
-      </c>
-      <c r="B63" s="2">
-        <v>55.658999999999999</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>1960</v>
-      </c>
-      <c r="B64" s="2">
-        <v>55.716999999999999</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641E453F-52BC-4780-92D0-F407D2D92A46}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="D9" workbookViewId="0">
+      <selection sqref="A1:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.389</v>
+      </c>
+      <c r="C2" s="2">
+        <v>153</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.236</v>
+      </c>
+      <c r="E2" s="2">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2">
+        <v>93</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="2">
-        <v>1.389</v>
+        <v>1.1719999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2">
-        <v>1.236</v>
+        <v>1.03</v>
       </c>
       <c r="E3" s="2">
         <v>90</v>
       </c>
       <c r="F3" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B4" s="2">
+        <v>961</v>
+      </c>
+      <c r="C4" s="2">
+        <v>128</v>
+      </c>
+      <c r="D4" s="2">
+        <v>833</v>
+      </c>
+      <c r="E4" s="2">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2">
+        <v>127</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.026</v>
+      </c>
+      <c r="C5" s="2">
+        <v>145</v>
+      </c>
+      <c r="D5" s="2">
+        <v>881</v>
+      </c>
+      <c r="E5" s="2">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2">
+        <v>106</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <v>142</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.03</v>
-      </c>
-      <c r="E4" s="2">
-        <v>90</v>
-      </c>
-      <c r="F4" s="2">
-        <v>109</v>
-      </c>
-      <c r="G4" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2">
+        <v>916</v>
+      </c>
+      <c r="E6" s="2">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="2">
-        <v>961</v>
-      </c>
-      <c r="C5" s="2">
-        <v>128</v>
-      </c>
-      <c r="D5" s="2">
-        <v>833</v>
-      </c>
-      <c r="E5" s="2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.216</v>
+      </c>
+      <c r="C7" s="2">
+        <v>191</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>170</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.446</v>
+      </c>
+      <c r="E8" s="2">
         <v>84</v>
       </c>
-      <c r="F5" s="2">
-        <v>127</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.026</v>
-      </c>
-      <c r="C6" s="2">
-        <v>145</v>
-      </c>
-      <c r="D6" s="2">
-        <v>881</v>
-      </c>
-      <c r="E6" s="2">
-        <v>95</v>
-      </c>
-      <c r="F6" s="2">
-        <v>106</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F8" s="2">
+        <v>67</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>152</v>
-      </c>
-      <c r="D7" s="2">
-        <v>916</v>
-      </c>
-      <c r="E7" s="2">
-        <v>96</v>
-      </c>
-      <c r="F7" s="2">
-        <v>62</v>
-      </c>
-      <c r="G7" s="2" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.81</v>
+      </c>
+      <c r="C9" s="2">
+        <v>187</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.623</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.216</v>
-      </c>
-      <c r="C8" s="2">
-        <v>191</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>115</v>
-      </c>
-      <c r="F8" s="2">
-        <v>77</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1.6160000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>170</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.446</v>
-      </c>
-      <c r="E9" s="2">
-        <v>84</v>
-      </c>
-      <c r="F9" s="2">
-        <v>67</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B10" s="2">
-        <v>1.81</v>
-      </c>
-      <c r="C10" s="2">
-        <v>187</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.623</v>
-      </c>
+        <v>1.978</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B11" s="2">
-        <v>1.978</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>201</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.0670000000000002</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>233</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.4740000000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>210</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.2639999999999998</v>
+      </c>
+      <c r="E13" s="2">
+        <v>65</v>
+      </c>
+      <c r="F13" s="2">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2.2679999999999998</v>
-      </c>
-      <c r="C12" s="2">
-        <v>201</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.375</v>
+      </c>
+      <c r="C14" s="2">
+        <v>180</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="E14" s="2">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="C13" s="2">
-        <v>233</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="E13" s="2">
-        <v>83</v>
-      </c>
-      <c r="F13" s="2">
-        <v>33</v>
-      </c>
-      <c r="G13" s="2" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>187</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.2069999999999999</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2">
-        <v>2.4740000000000002</v>
-      </c>
-      <c r="C14" s="2">
-        <v>210</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.2639999999999998</v>
-      </c>
-      <c r="E14" s="2">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2.375</v>
-      </c>
-      <c r="C15" s="2">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="E15" s="2">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B16" s="2">
-        <v>2.3940000000000001</v>
+        <v>2.1110000000000002</v>
       </c>
       <c r="C16" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2">
-        <v>2.2069999999999999</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B17" s="2">
-        <v>2.1110000000000002</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D17" s="2">
-        <v>1.9359999999999999</v>
+        <v>1.964</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B18" s="2">
-        <v>2.1440000000000001</v>
+        <v>2.3940000000000001</v>
       </c>
       <c r="C18" s="2">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="D18" s="2">
-        <v>1.964</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B19" s="2">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="C19" s="2">
-        <v>214</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2.1800000000000002</v>
-      </c>
+        <v>2.2389999999999999</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B20" s="2">
-        <v>2.2389999999999999</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B21" s="2">
-        <v>1.9019999999999999</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" s="2">
-        <v>1.2789999999999999</v>
+        <v>1.095</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B23" s="2">
-        <v>1.095</v>
+        <v>1.21</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B24" s="2">
-        <v>1.21</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B25" s="2">
-        <v>1.0660000000000001</v>
+        <v>1.121</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B26" s="2">
-        <v>1.121</v>
+        <v>1.038</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B27" s="2">
-        <v>1.038</v>
+        <v>1.032</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B28" s="2">
-        <v>1.032</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B29" s="2">
-        <v>1.0069999999999999</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B30" s="2">
-        <v>1.0049999999999999</v>
+        <v>930</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B31" s="2">
-        <v>930</v>
+        <v>807</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B32" s="2">
-        <v>807</v>
+        <v>908</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B33" s="2">
-        <v>908</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE8BD0B-B102-4D2C-B61D-D3AB2C8FCA7D}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" customWidth="1"/>
-    <col min="7" max="7" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="13.46484375" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="2">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2">
+        <v>586</v>
+      </c>
+      <c r="D2" s="2">
+        <v>720</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="2">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2">
+        <v>569</v>
+      </c>
+      <c r="D3" s="2">
+        <v>696</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="2">
-        <v>134</v>
-      </c>
-      <c r="C3" s="2">
-        <v>586</v>
-      </c>
-      <c r="D3" s="2">
-        <v>720</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B4" s="2">
         <v>127</v>
       </c>
       <c r="C4" s="2">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D4" s="2">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="2">
+        <v>155</v>
+      </c>
+      <c r="C5" s="2">
+        <v>740</v>
+      </c>
+      <c r="D5" s="2">
+        <v>895</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="2">
-        <v>127</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="F5" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="2">
+        <v>114</v>
+      </c>
+      <c r="C6" s="2">
+        <v>489</v>
+      </c>
+      <c r="D6" s="2">
+        <v>603</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B7" s="2">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2">
+        <v>545</v>
+      </c>
+      <c r="D7" s="2">
+        <v>655</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="2">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2">
+        <v>478</v>
+      </c>
+      <c r="D8" s="2">
+        <v>577</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="2">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2">
+        <v>484</v>
+      </c>
+      <c r="D9" s="2">
+        <v>579</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="2">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2">
+        <v>464</v>
+      </c>
+      <c r="D10" s="2">
+        <v>563</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="2">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2">
+        <v>524</v>
+      </c>
+      <c r="D11" s="2">
+        <v>622</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="2">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2">
+        <v>679</v>
+      </c>
+      <c r="D12" s="2">
+        <v>800</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B13" s="2">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2">
+        <v>634</v>
+      </c>
+      <c r="D13" s="2">
+        <v>762</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2">
+        <v>618</v>
+      </c>
+      <c r="D14" s="2">
+        <v>729</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="2">
+        <v>110</v>
+      </c>
+      <c r="C15" s="2">
         <v>560</v>
       </c>
-      <c r="D5" s="2">
-        <v>686</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="2">
-        <v>155</v>
-      </c>
-      <c r="C6" s="2">
-        <v>740</v>
-      </c>
-      <c r="D6" s="2">
-        <v>895</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="2">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2">
-        <v>489</v>
-      </c>
-      <c r="D7" s="2">
-        <v>603</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="2">
-        <v>110</v>
-      </c>
-      <c r="C8" s="2">
-        <v>545</v>
-      </c>
-      <c r="D8" s="2">
-        <v>655</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="2">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2">
-        <v>478</v>
-      </c>
-      <c r="D9" s="2">
-        <v>577</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="2">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2">
-        <v>484</v>
-      </c>
-      <c r="D10" s="2">
-        <v>579</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B11" s="2">
-        <v>99</v>
-      </c>
-      <c r="C11" s="2">
-        <v>464</v>
-      </c>
-      <c r="D11" s="2">
-        <v>563</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="D15" s="2">
+        <v>670</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B16" s="2">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2">
+        <v>607</v>
+      </c>
+      <c r="D16" s="2">
+        <v>720</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="2">
         <v>98</v>
       </c>
-      <c r="C12" s="2">
-        <v>524</v>
-      </c>
-      <c r="D12" s="2">
-        <v>622</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B13" s="2">
-        <v>121</v>
-      </c>
-      <c r="C13" s="2">
-        <v>679</v>
-      </c>
-      <c r="D13" s="2">
-        <v>800</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B14" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" s="2">
-        <v>634</v>
-      </c>
-      <c r="D14" s="2">
-        <v>762</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B15" s="2">
-        <v>111</v>
-      </c>
-      <c r="C15" s="2">
-        <v>618</v>
-      </c>
-      <c r="D15" s="2">
-        <v>729</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B16" s="2">
-        <v>110</v>
-      </c>
-      <c r="C16" s="2">
-        <v>560</v>
-      </c>
-      <c r="D16" s="2">
-        <v>670</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="C17" s="2">
+        <v>483</v>
+      </c>
+      <c r="D17" s="2">
+        <v>581</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B17" s="2">
-        <v>113</v>
-      </c>
-      <c r="C17" s="2">
-        <v>607</v>
-      </c>
-      <c r="D17" s="2">
-        <v>720</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B18" s="2">
-        <v>98</v>
-      </c>
-      <c r="C18" s="2">
-        <v>483</v>
-      </c>
-      <c r="D18" s="2">
-        <v>581</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>333</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF03AAB-D5D4-4623-866D-F559DD59CFB2}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2">
+        <v>228</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2">
+        <v>226</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="2">
-        <v>228</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2">
+        <v>213</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="2">
-        <v>226</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="2">
+        <v>211</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="2">
-        <v>213</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2">
+        <v>209</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="2">
-        <v>211</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2">
+        <v>207</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="2">
-        <v>209</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="2">
+        <v>205</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="2">
-        <v>207</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2">
+        <v>203</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="2">
-        <v>205</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2">
+        <v>201</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="2">
-        <v>203</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="2">
+        <v>199</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="2">
-        <v>201</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2">
+        <v>197</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="2">
-        <v>199</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="2">
+        <v>195</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="2">
-        <v>197</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2">
+        <v>193</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2">
-        <v>195</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="2">
+        <v>191</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="2">
-        <v>193</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="2">
+        <v>188</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="2">
-        <v>191</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="2">
+        <v>186</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B17" s="2">
-        <v>188</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="2">
+        <v>184</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="2">
-        <v>186</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="2">
+        <v>182</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B19" s="2">
-        <v>184</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="2">
+        <v>180</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B20" s="2">
-        <v>182</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="2">
+        <v>177</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B21" s="2">
-        <v>180</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>175</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B22" s="2">
-        <v>177</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="2">
+        <v>173</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B23" s="2">
-        <v>175</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>170</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B24" s="2">
-        <v>173</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B25" s="2">
+        <v>167</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B25" s="2">
-        <v>170</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B26" s="2">
+        <v>165</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B26" s="2">
-        <v>167</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="D26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B27" s="2">
+        <v>162</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B27" s="2">
-        <v>165</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B28" s="2">
+        <v>160</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B28" s="2">
-        <v>162</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B29" s="2">
+        <v>157</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B29" s="2">
-        <v>160</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B30" s="2">
+        <v>154</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B30" s="2">
-        <v>157</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B31" s="2">
+        <v>152</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B31" s="2">
-        <v>154</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B32" s="2">
+        <v>149</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B32" s="2">
-        <v>152</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="2">
+        <v>146</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B33" s="2">
-        <v>149</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B34" s="2">
+        <v>143</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B34" s="2">
-        <v>146</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B35" s="2">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>1989</v>
-      </c>
-      <c r="B35" s="2">
-        <v>143</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B36" s="2">
+        <v>137</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>1988</v>
-      </c>
-      <c r="B36" s="2">
-        <v>140</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B37" s="2">
+        <v>134</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>1987</v>
-      </c>
-      <c r="B37" s="2">
-        <v>137</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B38" s="2">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>1986</v>
-      </c>
-      <c r="B38" s="2">
-        <v>134</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B39" s="2">
+        <v>127</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>1985</v>
-      </c>
-      <c r="B39" s="2">
-        <v>131</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="2">
+        <v>124</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>1984</v>
-      </c>
-      <c r="B40" s="2">
-        <v>127</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B41" s="2">
+        <v>122</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>1983</v>
-      </c>
-      <c r="B41" s="2">
-        <v>124</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B42" s="2">
+        <v>119</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B42" s="2">
-        <v>122</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B43" s="2">
+        <v>116</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>1981</v>
-      </c>
-      <c r="B43" s="2">
-        <v>119</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B44" s="2">
         <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B45" s="2">
+        <v>113</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>1979</v>
-      </c>
-      <c r="B45" s="2">
-        <v>116</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B46" s="2">
+        <v>110</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>1978</v>
-      </c>
-      <c r="B46" s="2">
-        <v>113</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B47" s="2">
+        <v>108</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>1977</v>
-      </c>
-      <c r="B47" s="2">
-        <v>110</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B48" s="2">
+        <v>105</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>1976</v>
-      </c>
-      <c r="B48" s="2">
-        <v>108</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B49" s="2">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>1975</v>
-      </c>
-      <c r="B49" s="2">
-        <v>105</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B50" s="2">
+        <v>100</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>1974</v>
-      </c>
-      <c r="B50" s="2">
-        <v>102</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>1972</v>
+      </c>
+      <c r="B51" s="2">
+        <v>97</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>1973</v>
-      </c>
-      <c r="B51" s="2">
-        <v>100</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>1971</v>
+      </c>
+      <c r="B52" s="2">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>1972</v>
-      </c>
-      <c r="B52" s="2">
-        <v>97</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D52" s="2" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B53" s="2">
+        <v>92</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>1971</v>
-      </c>
-      <c r="B53" s="2">
-        <v>95</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>1969</v>
+      </c>
+      <c r="B54" s="2">
+        <v>89</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>1970</v>
-      </c>
-      <c r="B54" s="2">
-        <v>92</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D54" s="2" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>1968</v>
+      </c>
+      <c r="B55" s="2">
+        <v>87</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>1969</v>
-      </c>
-      <c r="B55" s="2">
-        <v>89</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D55" s="2" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B56" s="2">
+        <v>84</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>1968</v>
-      </c>
-      <c r="B56" s="2">
-        <v>87</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B57" s="2">
+        <v>82</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>1967</v>
-      </c>
-      <c r="B57" s="2">
-        <v>84</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D57" s="2" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>1965</v>
+      </c>
+      <c r="B58" s="2">
+        <v>79</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>1966</v>
-      </c>
-      <c r="B58" s="2">
-        <v>82</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B59" s="2">
+        <v>77</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>1965</v>
-      </c>
-      <c r="B59" s="2">
-        <v>79</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D59" s="2" t="s">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>1963</v>
+      </c>
+      <c r="B60" s="2">
+        <v>75</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
-        <v>1964</v>
-      </c>
-      <c r="B60" s="2">
-        <v>77</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D60" s="2" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B61" s="2">
+        <v>72</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
-        <v>1963</v>
-      </c>
-      <c r="B61" s="2">
-        <v>75</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="D61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>1961</v>
+      </c>
+      <c r="B62" s="2">
+        <v>70</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
-        <v>1962</v>
-      </c>
-      <c r="B62" s="2">
-        <v>72</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B63" s="2">
+        <v>68</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
-        <v>1961</v>
-      </c>
-      <c r="B63" s="2">
-        <v>70</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>1960</v>
-      </c>
-      <c r="B64" s="2">
-        <v>68</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>524</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30471F01-5CAF-4A11-8A47-8E1808808F31}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="5"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B527D7A5-E7C6-4DBD-B1D8-1A88F9392DB6}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.9296875" customWidth="1"/>
+    <col min="3" max="3" width="15.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2">
+        <v>1989</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>1988</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B33" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2">
+        <v>1987</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>1989</v>
-      </c>
-      <c r="B35" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>1988</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>1987</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>1986</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="2">
+        <v>1982</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>1985</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="2">
+        <v>1981</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>1984</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="2">
+        <v>1980</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>1983</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="2">
+        <v>1979</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>1982</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>1978</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>1981</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="2">
+        <v>1977</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>1980</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="2">
+        <v>1976</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>1979</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="2">
+        <v>1975</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>1978</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="2">
+        <v>1974</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>1977</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C47" s="2" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
+        <v>1973</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>1976</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="2">
+        <v>1972</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
-        <v>1975</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="2">
+        <v>1971</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
-        <v>1974</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="2">
+        <v>1970</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
-        <v>1973</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="2">
+        <v>1969</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
-        <v>1972</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C52" s="2" t="s">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="2">
+        <v>1968</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
-        <v>1971</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C53" s="2" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
-        <v>1970</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C54" s="2" t="s">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
-        <v>1969</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C55" s="2" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="2">
+        <v>1965</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
-        <v>1968</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C56" s="2" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
-        <v>1967</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C57" s="2" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="2">
+        <v>1963</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
-        <v>1966</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
-        <v>1965</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C59" s="2" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="2">
+        <v>1961</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
-        <v>1964</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="C60" s="2" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
-        <v>1963</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
-        <v>1962</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
-        <v>1961</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
-        <v>1960</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>668</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF825FD-F5ED-4A8A-870D-0B9A6FCAF88C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="9.796875" customWidth="1"/>
+    <col min="2" max="2" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>692</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABF2A1C-BC50-4D16-8611-724AC95152C0}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>1999</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>1998</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="C26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="2">
+        <v>1994</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <v>1993</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <v>1992</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>1999</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2">
+        <v>1991</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>1998</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>1997</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>1996</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>1995</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>1994</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>1993</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>1992</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>1991</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>739</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>1990</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Esperanza de vida RD.xlsx
+++ b/Esperanza de vida RD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Clases y Tareas Saul\3-Curso Python\Proyecto-Samsung-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B4835A-5FBE-4E2D-A7C1-0A630B873B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E097602-1E92-4D4B-BEB3-F59758751AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Esperanza de Vida" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="551">
   <si>
     <t>Fecha</t>
   </si>
@@ -47,534 +47,6 @@
     <t>Esperanza de vida</t>
   </si>
   <si>
-    <t>76,97</t>
-  </si>
-  <si>
-    <t>70,47</t>
-  </si>
-  <si>
-    <t>73,58</t>
-  </si>
-  <si>
-    <t>76,50</t>
-  </si>
-  <si>
-    <t>70,23</t>
-  </si>
-  <si>
-    <t>73,23</t>
-  </si>
-  <si>
-    <t>76,32</t>
-  </si>
-  <si>
-    <t>70,07</t>
-  </si>
-  <si>
-    <t>73,06</t>
-  </si>
-  <si>
-    <t>76,30</t>
-  </si>
-  <si>
-    <t>69,95</t>
-  </si>
-  <si>
-    <t>72,99</t>
-  </si>
-  <si>
-    <t>76,38</t>
-  </si>
-  <si>
-    <t>69,83</t>
-  </si>
-  <si>
-    <t>72,95</t>
-  </si>
-  <si>
-    <t>76,40</t>
-  </si>
-  <si>
-    <t>69,66</t>
-  </si>
-  <si>
-    <t>72,87</t>
-  </si>
-  <si>
-    <t>69,46</t>
-  </si>
-  <si>
-    <t>72,71</t>
-  </si>
-  <si>
-    <t>76,17</t>
-  </si>
-  <si>
-    <t>69,24</t>
-  </si>
-  <si>
-    <t>72,51</t>
-  </si>
-  <si>
-    <t>75,86</t>
-  </si>
-  <si>
-    <t>68,98</t>
-  </si>
-  <si>
-    <t>72,22</t>
-  </si>
-  <si>
-    <t>75,66</t>
-  </si>
-  <si>
-    <t>68,93</t>
-  </si>
-  <si>
-    <t>72,09</t>
-  </si>
-  <si>
-    <t>75,28</t>
-  </si>
-  <si>
-    <t>68,84</t>
-  </si>
-  <si>
-    <t>71,87</t>
-  </si>
-  <si>
-    <t>74,83</t>
-  </si>
-  <si>
-    <t>68,81</t>
-  </si>
-  <si>
-    <t>71,66</t>
-  </si>
-  <si>
-    <t>74,28</t>
-  </si>
-  <si>
-    <t>68,73</t>
-  </si>
-  <si>
-    <t>71,37</t>
-  </si>
-  <si>
-    <t>73,86</t>
-  </si>
-  <si>
-    <t>68,71</t>
-  </si>
-  <si>
-    <t>71,17</t>
-  </si>
-  <si>
-    <t>73,41</t>
-  </si>
-  <si>
-    <t>68,56</t>
-  </si>
-  <si>
-    <t>70,88</t>
-  </si>
-  <si>
-    <t>72,81</t>
-  </si>
-  <si>
-    <t>68,06</t>
-  </si>
-  <si>
-    <t>70,33</t>
-  </si>
-  <si>
-    <t>72,78</t>
-  </si>
-  <si>
-    <t>67,96</t>
-  </si>
-  <si>
-    <t>70,27</t>
-  </si>
-  <si>
-    <t>72,69</t>
-  </si>
-  <si>
-    <t>67,40</t>
-  </si>
-  <si>
-    <t>69,92</t>
-  </si>
-  <si>
-    <t>72,52</t>
-  </si>
-  <si>
-    <t>67,02</t>
-  </si>
-  <si>
-    <t>69,64</t>
-  </si>
-  <si>
-    <t>72,38</t>
-  </si>
-  <si>
-    <t>66,71</t>
-  </si>
-  <si>
-    <t>69,42</t>
-  </si>
-  <si>
-    <t>72,25</t>
-  </si>
-  <si>
-    <t>66,54</t>
-  </si>
-  <si>
-    <t>69,28</t>
-  </si>
-  <si>
-    <t>71,98</t>
-  </si>
-  <si>
-    <t>66,41</t>
-  </si>
-  <si>
-    <t>69,10</t>
-  </si>
-  <si>
-    <t>72,00</t>
-  </si>
-  <si>
-    <t>66,49</t>
-  </si>
-  <si>
-    <t>69,17</t>
-  </si>
-  <si>
-    <t>71,85</t>
-  </si>
-  <si>
-    <t>66,48</t>
-  </si>
-  <si>
-    <t>71,69</t>
-  </si>
-  <si>
-    <t>66,39</t>
-  </si>
-  <si>
-    <t>68,99</t>
-  </si>
-  <si>
-    <t>71,48</t>
-  </si>
-  <si>
-    <t>66,18</t>
-  </si>
-  <si>
-    <t>68,79</t>
-  </si>
-  <si>
-    <t>71,19</t>
-  </si>
-  <si>
-    <t>65,82</t>
-  </si>
-  <si>
-    <t>68,47</t>
-  </si>
-  <si>
-    <t>70,85</t>
-  </si>
-  <si>
-    <t>65,39</t>
-  </si>
-  <si>
-    <t>68,08</t>
-  </si>
-  <si>
-    <t>70,43</t>
-  </si>
-  <si>
-    <t>64,90</t>
-  </si>
-  <si>
-    <t>67,63</t>
-  </si>
-  <si>
-    <t>69,90</t>
-  </si>
-  <si>
-    <t>64,40</t>
-  </si>
-  <si>
-    <t>67,11</t>
-  </si>
-  <si>
-    <t>69,27</t>
-  </si>
-  <si>
-    <t>63,91</t>
-  </si>
-  <si>
-    <t>66,55</t>
-  </si>
-  <si>
-    <t>68,54</t>
-  </si>
-  <si>
-    <t>63,45</t>
-  </si>
-  <si>
-    <t>65,95</t>
-  </si>
-  <si>
-    <t>67,78</t>
-  </si>
-  <si>
-    <t>62,98</t>
-  </si>
-  <si>
-    <t>65,34</t>
-  </si>
-  <si>
-    <t>67,03</t>
-  </si>
-  <si>
-    <t>62,51</t>
-  </si>
-  <si>
-    <t>64,73</t>
-  </si>
-  <si>
-    <t>66,33</t>
-  </si>
-  <si>
-    <t>62,03</t>
-  </si>
-  <si>
-    <t>64,14</t>
-  </si>
-  <si>
-    <t>65,75</t>
-  </si>
-  <si>
-    <t>61,54</t>
-  </si>
-  <si>
-    <t>63,60</t>
-  </si>
-  <si>
-    <t>65,27</t>
-  </si>
-  <si>
-    <t>61,04</t>
-  </si>
-  <si>
-    <t>63,11</t>
-  </si>
-  <si>
-    <t>64,86</t>
-  </si>
-  <si>
-    <t>60,53</t>
-  </si>
-  <si>
-    <t>62,65</t>
-  </si>
-  <si>
-    <t>64,48</t>
-  </si>
-  <si>
-    <t>60,01</t>
-  </si>
-  <si>
-    <t>62,19</t>
-  </si>
-  <si>
-    <t>64,12</t>
-  </si>
-  <si>
-    <t>59,51</t>
-  </si>
-  <si>
-    <t>61,75</t>
-  </si>
-  <si>
-    <t>63,02</t>
-  </si>
-  <si>
-    <t>58,60</t>
-  </si>
-  <si>
-    <t>60,75</t>
-  </si>
-  <si>
-    <t>63,26</t>
-  </si>
-  <si>
-    <t>58,53</t>
-  </si>
-  <si>
-    <t>60,82</t>
-  </si>
-  <si>
-    <t>62,76</t>
-  </si>
-  <si>
-    <t>58,04</t>
-  </si>
-  <si>
-    <t>60,32</t>
-  </si>
-  <si>
-    <t>62,22</t>
-  </si>
-  <si>
-    <t>57,53</t>
-  </si>
-  <si>
-    <t>59,79</t>
-  </si>
-  <si>
-    <t>61,64</t>
-  </si>
-  <si>
-    <t>56,99</t>
-  </si>
-  <si>
-    <t>59,24</t>
-  </si>
-  <si>
-    <t>56,43</t>
-  </si>
-  <si>
-    <t>58,65</t>
-  </si>
-  <si>
-    <t>60,42</t>
-  </si>
-  <si>
-    <t>55,83</t>
-  </si>
-  <si>
-    <t>59,80</t>
-  </si>
-  <si>
-    <t>55,21</t>
-  </si>
-  <si>
-    <t>57,42</t>
-  </si>
-  <si>
-    <t>59,16</t>
-  </si>
-  <si>
-    <t>54,58</t>
-  </si>
-  <si>
-    <t>56,78</t>
-  </si>
-  <si>
-    <t>58,52</t>
-  </si>
-  <si>
-    <t>53,94</t>
-  </si>
-  <si>
-    <t>56,15</t>
-  </si>
-  <si>
-    <t>57,89</t>
-  </si>
-  <si>
-    <t>53,32</t>
-  </si>
-  <si>
-    <t>55,51</t>
-  </si>
-  <si>
-    <t>57,27</t>
-  </si>
-  <si>
-    <t>52,70</t>
-  </si>
-  <si>
-    <t>54,89</t>
-  </si>
-  <si>
-    <t>56,67</t>
-  </si>
-  <si>
-    <t>52,10</t>
-  </si>
-  <si>
-    <t>54,29</t>
-  </si>
-  <si>
-    <t>56,04</t>
-  </si>
-  <si>
-    <t>51,49</t>
-  </si>
-  <si>
-    <t>53,67</t>
-  </si>
-  <si>
-    <t>55,27</t>
-  </si>
-  <si>
-    <t>47,05</t>
-  </si>
-  <si>
-    <t>50,86</t>
-  </si>
-  <si>
-    <t>54,92</t>
-  </si>
-  <si>
-    <t>50,38</t>
-  </si>
-  <si>
-    <t>52,54</t>
-  </si>
-  <si>
-    <t>54,13</t>
-  </si>
-  <si>
-    <t>49,68</t>
-  </si>
-  <si>
-    <t>51,80</t>
-  </si>
-  <si>
-    <t>53,79</t>
-  </si>
-  <si>
-    <t>49,26</t>
-  </si>
-  <si>
-    <t>51,41</t>
-  </si>
-  <si>
-    <t>53,20</t>
-  </si>
-  <si>
-    <t>48,71</t>
-  </si>
-  <si>
-    <t>50,84</t>
-  </si>
-  <si>
-    <t>52,61</t>
-  </si>
-  <si>
-    <t>48,15</t>
-  </si>
-  <si>
-    <t>50,26</t>
-  </si>
-  <si>
     <t>Muertes</t>
   </si>
   <si>
@@ -738,24 +210,6 @@
   </si>
   <si>
     <t>16,89‰</t>
-  </si>
-  <si>
-    <t>76,29</t>
-  </si>
-  <si>
-    <t>69,30</t>
-  </si>
-  <si>
-    <t>72,62</t>
-  </si>
-  <si>
-    <t>76,91</t>
-  </si>
-  <si>
-    <t>69,36</t>
-  </si>
-  <si>
-    <t>72,89</t>
   </si>
   <si>
     <t>Número de Homicidios</t>
@@ -2557,19 +2011,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2583,872 +2037,872 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="2">
+        <v>76.290000000000006</v>
+      </c>
+      <c r="C2" s="2">
+        <v>69.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>72.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2020</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="2">
+        <v>76.91</v>
+      </c>
+      <c r="C3" s="2">
+        <v>69.36</v>
+      </c>
+      <c r="D3" s="2">
+        <v>72.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2019</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="2">
+        <v>76.97</v>
+      </c>
+      <c r="C4" s="2">
+        <v>70.47</v>
+      </c>
+      <c r="D4" s="2">
+        <v>73.58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>70.23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="2">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="C6" s="2">
+        <v>70.069999999999993</v>
+      </c>
+      <c r="D6" s="2">
+        <v>73.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>69.95</v>
+      </c>
+      <c r="D7" s="2">
+        <v>72.989999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2015</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>76.38</v>
+      </c>
+      <c r="C8" s="2">
+        <v>69.83</v>
+      </c>
+      <c r="D8" s="2">
+        <v>72.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="C9" s="2">
+        <v>69.66</v>
+      </c>
+      <c r="D9" s="2">
+        <v>72.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="2">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="C10" s="2">
+        <v>69.459999999999994</v>
+      </c>
+      <c r="D10" s="2">
+        <v>72.709999999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="2">
+        <v>76.17</v>
+      </c>
+      <c r="C11" s="2">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="D11" s="2">
+        <v>72.510000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="2">
+        <v>75.86</v>
+      </c>
+      <c r="C12" s="2">
+        <v>68.98</v>
+      </c>
+      <c r="D12" s="2">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="2">
+        <v>75.66</v>
+      </c>
+      <c r="C13" s="2">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="D13" s="2">
+        <v>72.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>75.28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>68.84</v>
+      </c>
+      <c r="D14" s="2">
+        <v>71.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="2">
+        <v>74.83</v>
+      </c>
+      <c r="C15" s="2">
+        <v>68.81</v>
+      </c>
+      <c r="D15" s="2">
+        <v>71.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="2">
+        <v>74.28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>68.73</v>
+      </c>
+      <c r="D16" s="2">
+        <v>71.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="2">
+        <v>73.86</v>
+      </c>
+      <c r="C17" s="2">
+        <v>68.709999999999994</v>
+      </c>
+      <c r="D17" s="2">
+        <v>71.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="2">
+        <v>73.41</v>
+      </c>
+      <c r="C18" s="2">
+        <v>68.56</v>
+      </c>
+      <c r="D18" s="2">
+        <v>70.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
+        <v>72.81</v>
+      </c>
+      <c r="C19" s="2">
+        <v>68.06</v>
+      </c>
+      <c r="D19" s="2">
+        <v>70.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="2">
+        <v>72.78</v>
+      </c>
+      <c r="C20" s="2">
+        <v>67.959999999999994</v>
+      </c>
+      <c r="D20" s="2">
+        <v>70.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2002</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="2">
+        <v>72.69</v>
+      </c>
+      <c r="C21" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="D21" s="2">
+        <v>69.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B22" s="2">
+        <v>72.52</v>
+      </c>
+      <c r="C22" s="2">
+        <v>67.02</v>
+      </c>
+      <c r="D22" s="2">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2000</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B23" s="2">
+        <v>72.38</v>
+      </c>
+      <c r="C23" s="2">
+        <v>66.709999999999994</v>
+      </c>
+      <c r="D23" s="2">
+        <v>69.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1999</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B24" s="2">
+        <v>72.25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="D24" s="2">
+        <v>69.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1998</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B25" s="2">
+        <v>71.98</v>
+      </c>
+      <c r="C25" s="2">
+        <v>66.41</v>
+      </c>
+      <c r="D25" s="2">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1997</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B26" s="2">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="D26" s="2">
+        <v>69.17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1996</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B27" s="2">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="C27" s="2">
+        <v>66.48</v>
+      </c>
+      <c r="D27" s="2">
+        <v>69.099999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1995</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B28" s="2">
+        <v>71.69</v>
+      </c>
+      <c r="C28" s="2">
+        <v>66.39</v>
+      </c>
+      <c r="D28" s="2">
+        <v>68.989999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1994</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B29" s="2">
+        <v>71.48</v>
+      </c>
+      <c r="C29" s="2">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="D29" s="2">
+        <v>68.790000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1993</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B30" s="2">
+        <v>71.19</v>
+      </c>
+      <c r="C30" s="2">
+        <v>65.819999999999993</v>
+      </c>
+      <c r="D30" s="2">
+        <v>68.47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1992</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B31" s="2">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="C31" s="2">
+        <v>65.39</v>
+      </c>
+      <c r="D31" s="2">
+        <v>68.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1991</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B32" s="2">
+        <v>70.430000000000007</v>
+      </c>
+      <c r="C32" s="2">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="D32" s="2">
+        <v>67.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1990</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="2">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C33" s="2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D33" s="2">
+        <v>67.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1989</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="2">
+        <v>69.27</v>
+      </c>
+      <c r="C34" s="2">
+        <v>63.91</v>
+      </c>
+      <c r="D34" s="2">
+        <v>66.55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1988</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="2">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="C35" s="2">
+        <v>63.45</v>
+      </c>
+      <c r="D35" s="2">
+        <v>65.95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1987</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="2">
+        <v>67.78</v>
+      </c>
+      <c r="C36" s="2">
+        <v>62.98</v>
+      </c>
+      <c r="D36" s="2">
+        <v>65.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1986</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="2">
+        <v>67.03</v>
+      </c>
+      <c r="C37" s="2">
+        <v>62.51</v>
+      </c>
+      <c r="D37" s="2">
+        <v>64.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1985</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="2">
+        <v>66.33</v>
+      </c>
+      <c r="C38" s="2">
+        <v>62.03</v>
+      </c>
+      <c r="D38" s="2">
+        <v>64.14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1984</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="2">
+        <v>65.75</v>
+      </c>
+      <c r="C39" s="2">
+        <v>61.54</v>
+      </c>
+      <c r="D39" s="2">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1983</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="2">
+        <v>65.27</v>
+      </c>
+      <c r="C40" s="2">
+        <v>61.04</v>
+      </c>
+      <c r="D40" s="2">
+        <v>63.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1982</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="2">
+        <v>64.86</v>
+      </c>
+      <c r="C41" s="2">
+        <v>60.53</v>
+      </c>
+      <c r="D41" s="2">
+        <v>62.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1981</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="2">
+        <v>64.48</v>
+      </c>
+      <c r="C42" s="2">
+        <v>60.01</v>
+      </c>
+      <c r="D42" s="2">
+        <v>62.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1980</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="2">
+        <v>64.12</v>
+      </c>
+      <c r="C43" s="2">
+        <v>59.51</v>
+      </c>
+      <c r="D43" s="2">
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1979</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="2">
+        <v>63.02</v>
+      </c>
+      <c r="C44" s="2">
+        <v>58.6</v>
+      </c>
+      <c r="D44" s="2">
+        <v>60.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1978</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="2">
+        <v>63.26</v>
+      </c>
+      <c r="C45" s="2">
+        <v>58.53</v>
+      </c>
+      <c r="D45" s="2">
+        <v>60.82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1977</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B46" s="2">
+        <v>62.76</v>
+      </c>
+      <c r="C46" s="2">
+        <v>58.04</v>
+      </c>
+      <c r="D46" s="2">
+        <v>60.32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1976</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B47" s="2">
+        <v>62.22</v>
+      </c>
+      <c r="C47" s="2">
+        <v>57.53</v>
+      </c>
+      <c r="D47" s="2">
+        <v>59.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1975</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="2">
+        <v>61.64</v>
+      </c>
+      <c r="C48" s="2">
+        <v>56.99</v>
+      </c>
+      <c r="D48" s="2">
+        <v>59.24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1974</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="2">
+        <v>61.04</v>
+      </c>
+      <c r="C49" s="2">
+        <v>56.43</v>
+      </c>
+      <c r="D49" s="2">
+        <v>58.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1973</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="2">
+        <v>60.42</v>
+      </c>
+      <c r="C50" s="2">
+        <v>55.83</v>
+      </c>
+      <c r="D50" s="2">
+        <v>58.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1972</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B51" s="2">
+        <v>59.8</v>
+      </c>
+      <c r="C51" s="2">
+        <v>55.21</v>
+      </c>
+      <c r="D51" s="2">
+        <v>57.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1971</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B52" s="2">
+        <v>59.16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>54.58</v>
+      </c>
+      <c r="D52" s="2">
+        <v>56.78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1970</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B53" s="2">
+        <v>58.52</v>
+      </c>
+      <c r="C53" s="2">
+        <v>53.94</v>
+      </c>
+      <c r="D53" s="2">
+        <v>56.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1969</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B54" s="2">
+        <v>57.89</v>
+      </c>
+      <c r="C54" s="2">
+        <v>53.32</v>
+      </c>
+      <c r="D54" s="2">
+        <v>55.51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1968</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="2">
+        <v>57.27</v>
+      </c>
+      <c r="C55" s="2">
+        <v>52.7</v>
+      </c>
+      <c r="D55" s="2">
+        <v>54.89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1967</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="2">
+        <v>56.67</v>
+      </c>
+      <c r="C56" s="2">
+        <v>52.1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>54.29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1966</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="2">
+        <v>56.04</v>
+      </c>
+      <c r="C57" s="2">
+        <v>51.49</v>
+      </c>
+      <c r="D57" s="2">
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1965</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="2">
+        <v>55.27</v>
+      </c>
+      <c r="C58" s="2">
+        <v>47.05</v>
+      </c>
+      <c r="D58" s="2">
+        <v>50.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1964</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B59" s="2">
+        <v>54.92</v>
+      </c>
+      <c r="C59" s="2">
+        <v>50.38</v>
+      </c>
+      <c r="D59" s="2">
+        <v>52.54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>1963</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B60" s="2">
+        <v>54.13</v>
+      </c>
+      <c r="C60" s="2">
+        <v>49.68</v>
+      </c>
+      <c r="D60" s="2">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1962</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B61" s="2">
+        <v>53.79</v>
+      </c>
+      <c r="C61" s="2">
+        <v>49.26</v>
+      </c>
+      <c r="D61" s="2">
+        <v>51.41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1961</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B62" s="2">
+        <v>53.2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>48.71</v>
+      </c>
+      <c r="D62" s="2">
+        <v>50.84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1960</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>179</v>
+      <c r="B63" s="2">
+        <v>52.61</v>
+      </c>
+      <c r="C63" s="2">
+        <v>48.15</v>
+      </c>
+      <c r="D63" s="2">
+        <v>50.26</v>
       </c>
     </row>
   </sheetData>
@@ -3464,23 +2918,23 @@
       <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
@@ -3488,10 +2942,10 @@
         <v>74.245000000000005</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2020</v>
       </c>
@@ -3499,10 +2953,10 @@
         <v>71.058000000000007</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2019</v>
       </c>
@@ -3510,10 +2964,10 @@
         <v>62.21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
@@ -3521,10 +2975,10 @@
         <v>62.212000000000003</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -3532,10 +2986,10 @@
         <v>61.338999999999999</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
@@ -3543,10 +2997,10 @@
         <v>60.087000000000003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2015</v>
       </c>
@@ -3554,10 +3008,10 @@
         <v>58.712000000000003</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -3565,10 +3019,10 @@
         <v>57.588000000000001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -3576,10 +3030,10 @@
         <v>56.781999999999996</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
@@ -3587,10 +3041,10 @@
         <v>56.168999999999997</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
@@ -3598,10 +3052,10 @@
         <v>55.947000000000003</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
@@ -3609,10 +3063,10 @@
         <v>55.177</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
@@ -3620,10 +3074,10 @@
         <v>54.695</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
@@ -3631,10 +3085,10 @@
         <v>54.112000000000002</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -3642,10 +3096,10 @@
         <v>53.75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
@@ -3653,10 +3107,10 @@
         <v>53.274000000000001</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
@@ -3664,10 +3118,10 @@
         <v>53.207000000000001</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
@@ -3675,10 +3129,10 @@
         <v>53.936</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
@@ -3686,10 +3140,10 @@
         <v>53.265999999999998</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2002</v>
       </c>
@@ -3697,10 +3151,10 @@
         <v>53.511000000000003</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
@@ -3708,10 +3162,10 @@
         <v>52.789000000000001</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2000</v>
       </c>
@@ -3719,10 +3173,10 @@
         <v>51.807000000000002</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1999</v>
       </c>
@@ -3730,10 +3184,10 @@
         <v>50.417000000000002</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1998</v>
       </c>
@@ -3741,10 +3195,10 @@
         <v>49.116</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1997</v>
       </c>
@@ -3752,10 +3206,10 @@
         <v>47.158999999999999</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1996</v>
       </c>
@@ -3763,10 +3217,10 @@
         <v>45.676000000000002</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1995</v>
       </c>
@@ -3774,10 +3228,10 @@
         <v>44.256</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1994</v>
       </c>
@@ -3785,10 +3239,10 @@
         <v>42.978999999999999</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1993</v>
       </c>
@@ -3796,10 +3250,10 @@
         <v>42.768000000000001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1992</v>
       </c>
@@ -3807,10 +3261,10 @@
         <v>42.701000000000001</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1991</v>
       </c>
@@ -3818,10 +3272,10 @@
         <v>42.872999999999998</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1990</v>
       </c>
@@ -3829,10 +3283,10 @@
         <v>43.262999999999998</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1989</v>
       </c>
@@ -3840,10 +3294,10 @@
         <v>43.674999999999997</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1988</v>
       </c>
@@ -3851,10 +3305,10 @@
         <v>44.054000000000002</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1987</v>
       </c>
@@ -3862,10 +3316,10 @@
         <v>44.536000000000001</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1986</v>
       </c>
@@ -3873,10 +3327,10 @@
         <v>45.179000000000002</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1985</v>
       </c>
@@ -3884,10 +3338,10 @@
         <v>45.912999999999997</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1984</v>
       </c>
@@ -3895,10 +3349,10 @@
         <v>46.664000000000001</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1983</v>
       </c>
@@ -3906,10 +3360,10 @@
         <v>47.284999999999997</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1982</v>
       </c>
@@ -3917,10 +3371,10 @@
         <v>47.825000000000003</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1981</v>
       </c>
@@ -3928,10 +3382,10 @@
         <v>48.497</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1980</v>
       </c>
@@ -3939,10 +3393,10 @@
         <v>49.24</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1979</v>
       </c>
@@ -3950,10 +3404,10 @@
         <v>51.572000000000003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1978</v>
       </c>
@@ -3961,10 +3415,10 @@
         <v>50.101999999999997</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1977</v>
       </c>
@@ -3972,10 +3426,10 @@
         <v>50.195999999999998</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1976</v>
       </c>
@@ -3983,10 +3437,10 @@
         <v>50.343000000000004</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1975</v>
       </c>
@@ -3994,10 +3448,10 @@
         <v>50.543999999999997</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1974</v>
       </c>
@@ -4005,10 +3459,10 @@
         <v>50.820999999999998</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1973</v>
       </c>
@@ -4016,10 +3470,10 @@
         <v>51.024999999999999</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1972</v>
       </c>
@@ -4027,10 +3481,10 @@
         <v>51.066000000000003</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1971</v>
       </c>
@@ -4038,10 +3492,10 @@
         <v>51.081000000000003</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1970</v>
       </c>
@@ -4049,10 +3503,10 @@
         <v>51.436999999999998</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1969</v>
       </c>
@@ -4060,10 +3514,10 @@
         <v>52.17</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1968</v>
       </c>
@@ -4071,10 +3525,10 @@
         <v>52.941000000000003</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1967</v>
       </c>
@@ -4082,10 +3536,10 @@
         <v>53.686999999999998</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1966</v>
       </c>
@@ -4093,10 +3547,10 @@
         <v>54.3</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1965</v>
       </c>
@@ -4104,10 +3558,10 @@
         <v>58.564999999999998</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1964</v>
       </c>
@@ -4115,10 +3569,10 @@
         <v>54.997999999999998</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>1963</v>
       </c>
@@ -4126,10 +3580,10 @@
         <v>55.704000000000001</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1962</v>
       </c>
@@ -4137,10 +3591,10 @@
         <v>55.515000000000001</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1961</v>
       </c>
@@ -4148,10 +3602,10 @@
         <v>55.658999999999999</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1960</v>
       </c>
@@ -4159,7 +3613,7 @@
         <v>55.716999999999999</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>234</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4175,36 +3629,36 @@
       <selection sqref="A1:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2022</v>
       </c>
@@ -4224,10 +3678,10 @@
         <v>93</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -4247,10 +3701,10 @@
         <v>109</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
@@ -4270,10 +3724,10 @@
         <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2019</v>
       </c>
@@ -4293,10 +3747,10 @@
         <v>106</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2018</v>
       </c>
@@ -4316,10 +3770,10 @@
         <v>62</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2017</v>
       </c>
@@ -4339,10 +3793,10 @@
         <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2016</v>
       </c>
@@ -4362,10 +3816,10 @@
         <v>67</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -4381,10 +3835,10 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -4396,10 +3850,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
@@ -4415,10 +3869,10 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
@@ -4438,10 +3892,10 @@
         <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
@@ -4461,10 +3915,10 @@
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
@@ -4484,10 +3938,10 @@
         <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
@@ -4503,10 +3957,10 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -4522,10 +3976,10 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
@@ -4541,10 +3995,10 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
@@ -4560,10 +4014,10 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
@@ -4575,10 +4029,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
@@ -4590,10 +4044,10 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2002</v>
       </c>
@@ -4605,10 +4059,10 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
@@ -4620,10 +4074,10 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2000</v>
       </c>
@@ -4635,10 +4089,10 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1999</v>
       </c>
@@ -4650,10 +4104,10 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1998</v>
       </c>
@@ -4665,10 +4119,10 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1997</v>
       </c>
@@ -4680,10 +4134,10 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1996</v>
       </c>
@@ -4695,10 +4149,10 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1995</v>
       </c>
@@ -4710,10 +4164,10 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1994</v>
       </c>
@@ -4725,10 +4179,10 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1993</v>
       </c>
@@ -4740,10 +4194,10 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1992</v>
       </c>
@@ -4755,10 +4209,10 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1991</v>
       </c>
@@ -4770,7 +4224,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>277</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4786,37 +4240,37 @@
       <selection sqref="A1:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="13.46484375" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>281</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>282</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2015</v>
       </c>
@@ -4830,16 +4284,16 @@
         <v>720</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
@@ -4853,16 +4307,16 @@
         <v>696</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>288</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2013</v>
       </c>
@@ -4876,16 +4330,16 @@
         <v>686</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2012</v>
       </c>
@@ -4899,16 +4353,16 @@
         <v>895</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>293</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2011</v>
       </c>
@@ -4922,16 +4376,16 @@
         <v>603</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>297</v>
+        <v>115</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2010</v>
       </c>
@@ -4945,16 +4399,16 @@
         <v>655</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>299</v>
+        <v>117</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2009</v>
       </c>
@@ -4968,16 +4422,16 @@
         <v>577</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2008</v>
       </c>
@@ -4991,16 +4445,16 @@
         <v>579</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>306</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2007</v>
       </c>
@@ -5014,16 +4468,16 @@
         <v>563</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>308</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2006</v>
       </c>
@@ -5037,16 +4491,16 @@
         <v>622</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>312</v>
+        <v>130</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2005</v>
       </c>
@@ -5060,16 +4514,16 @@
         <v>800</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>315</v>
+        <v>133</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2004</v>
       </c>
@@ -5083,16 +4537,16 @@
         <v>762</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2003</v>
       </c>
@@ -5106,16 +4560,16 @@
         <v>729</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2002</v>
       </c>
@@ -5129,16 +4583,16 @@
         <v>670</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2001</v>
       </c>
@@ -5152,16 +4606,16 @@
         <v>720</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>325</v>
+        <v>143</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>326</v>
+        <v>144</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2000</v>
       </c>
@@ -5175,13 +4629,13 @@
         <v>581</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>328</v>
+        <v>146</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>285</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5197,26 +4651,26 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>330</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>331</v>
+        <v>149</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
@@ -5224,16 +4678,16 @@
         <v>228</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>334</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>335</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2020</v>
       </c>
@@ -5241,16 +4695,16 @@
         <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>337</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>338</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2019</v>
       </c>
@@ -5258,16 +4712,16 @@
         <v>213</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>340</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>341</v>
+        <v>159</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
@@ -5275,16 +4729,16 @@
         <v>211</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>343</v>
+        <v>161</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>344</v>
+        <v>162</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
@@ -5292,16 +4746,16 @@
         <v>209</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
@@ -5309,16 +4763,16 @@
         <v>207</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>349</v>
+        <v>167</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2015</v>
       </c>
@@ -5326,16 +4780,16 @@
         <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>352</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>353</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
@@ -5343,16 +4797,16 @@
         <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>355</v>
+        <v>173</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>356</v>
+        <v>174</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
@@ -5360,16 +4814,16 @@
         <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>358</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>359</v>
+        <v>177</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
@@ -5377,16 +4831,16 @@
         <v>199</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>361</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>362</v>
+        <v>180</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
@@ -5394,16 +4848,16 @@
         <v>197</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>364</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>365</v>
+        <v>183</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
@@ -5411,16 +4865,16 @@
         <v>195</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
@@ -5428,16 +4882,16 @@
         <v>193</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
@@ -5445,16 +4899,16 @@
         <v>191</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>373</v>
+        <v>191</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>374</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
@@ -5462,16 +4916,16 @@
         <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>376</v>
+        <v>194</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
@@ -5479,16 +4933,16 @@
         <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>379</v>
+        <v>197</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
@@ -5496,16 +4950,16 @@
         <v>184</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
@@ -5513,16 +4967,16 @@
         <v>182</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>386</v>
+        <v>204</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
@@ -5530,16 +4984,16 @@
         <v>180</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>388</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>389</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2002</v>
       </c>
@@ -5547,16 +5001,16 @@
         <v>177</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
@@ -5564,16 +5018,16 @@
         <v>175</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>394</v>
+        <v>212</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>395</v>
+        <v>213</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2000</v>
       </c>
@@ -5581,16 +5035,16 @@
         <v>173</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>398</v>
+        <v>216</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1999</v>
       </c>
@@ -5598,16 +5052,16 @@
         <v>170</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>400</v>
+        <v>218</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1998</v>
       </c>
@@ -5615,16 +5069,16 @@
         <v>167</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>403</v>
+        <v>221</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1997</v>
       </c>
@@ -5632,16 +5086,16 @@
         <v>165</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>407</v>
+        <v>225</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1996</v>
       </c>
@@ -5649,16 +5103,16 @@
         <v>162</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>409</v>
+        <v>227</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1995</v>
       </c>
@@ -5666,16 +5120,16 @@
         <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1994</v>
       </c>
@@ -5683,16 +5137,16 @@
         <v>157</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>415</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>416</v>
+        <v>234</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1993</v>
       </c>
@@ -5700,16 +5154,16 @@
         <v>154</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>418</v>
+        <v>236</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>419</v>
+        <v>237</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1992</v>
       </c>
@@ -5717,16 +5171,16 @@
         <v>152</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>421</v>
+        <v>239</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1991</v>
       </c>
@@ -5734,16 +5188,16 @@
         <v>149</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>424</v>
+        <v>242</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1990</v>
       </c>
@@ -5751,16 +5205,16 @@
         <v>146</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>427</v>
+        <v>245</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>428</v>
+        <v>246</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1989</v>
       </c>
@@ -5768,16 +5222,16 @@
         <v>143</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>430</v>
+        <v>248</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>431</v>
+        <v>249</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1988</v>
       </c>
@@ -5785,16 +5239,16 @@
         <v>140</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>433</v>
+        <v>251</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>434</v>
+        <v>252</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1987</v>
       </c>
@@ -5802,16 +5256,16 @@
         <v>137</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>436</v>
+        <v>254</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>437</v>
+        <v>255</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1986</v>
       </c>
@@ -5819,16 +5273,16 @@
         <v>134</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>439</v>
+        <v>257</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>440</v>
+        <v>258</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1985</v>
       </c>
@@ -5836,16 +5290,16 @@
         <v>131</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>442</v>
+        <v>260</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>443</v>
+        <v>261</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1984</v>
       </c>
@@ -5853,16 +5307,16 @@
         <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>445</v>
+        <v>263</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>446</v>
+        <v>264</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1983</v>
       </c>
@@ -5870,16 +5324,16 @@
         <v>124</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>448</v>
+        <v>266</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1982</v>
       </c>
@@ -5887,16 +5341,16 @@
         <v>122</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>451</v>
+        <v>269</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>452</v>
+        <v>270</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1981</v>
       </c>
@@ -5904,16 +5358,16 @@
         <v>119</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>455</v>
+        <v>273</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1980</v>
       </c>
@@ -5921,16 +5375,16 @@
         <v>116</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>458</v>
+        <v>276</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1979</v>
       </c>
@@ -5938,16 +5392,16 @@
         <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>460</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>461</v>
+        <v>279</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1978</v>
       </c>
@@ -5955,16 +5409,16 @@
         <v>113</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>464</v>
+        <v>282</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1977</v>
       </c>
@@ -5972,16 +5426,16 @@
         <v>110</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>466</v>
+        <v>284</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>467</v>
+        <v>285</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1976</v>
       </c>
@@ -5989,16 +5443,16 @@
         <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>469</v>
+        <v>287</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>470</v>
+        <v>288</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1975</v>
       </c>
@@ -6006,16 +5460,16 @@
         <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>472</v>
+        <v>290</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>473</v>
+        <v>291</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1974</v>
       </c>
@@ -6023,16 +5477,16 @@
         <v>102</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>475</v>
+        <v>293</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1973</v>
       </c>
@@ -6040,16 +5494,16 @@
         <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>478</v>
+        <v>296</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>479</v>
+        <v>297</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1972</v>
       </c>
@@ -6057,16 +5511,16 @@
         <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>481</v>
+        <v>299</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>482</v>
+        <v>300</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1971</v>
       </c>
@@ -6074,16 +5528,16 @@
         <v>95</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>484</v>
+        <v>302</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>485</v>
+        <v>303</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1970</v>
       </c>
@@ -6091,16 +5545,16 @@
         <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>487</v>
+        <v>305</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>488</v>
+        <v>306</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1969</v>
       </c>
@@ -6108,16 +5562,16 @@
         <v>89</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>490</v>
+        <v>308</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>491</v>
+        <v>309</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1968</v>
       </c>
@@ -6125,16 +5579,16 @@
         <v>87</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>493</v>
+        <v>311</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>494</v>
+        <v>312</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1967</v>
       </c>
@@ -6142,16 +5596,16 @@
         <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>496</v>
+        <v>314</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>497</v>
+        <v>315</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1966</v>
       </c>
@@ -6159,16 +5613,16 @@
         <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>499</v>
+        <v>317</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>500</v>
+        <v>318</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1965</v>
       </c>
@@ -6176,16 +5630,16 @@
         <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>502</v>
+        <v>320</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>503</v>
+        <v>321</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1964</v>
       </c>
@@ -6193,16 +5647,16 @@
         <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>505</v>
+        <v>323</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>506</v>
+        <v>324</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>1963</v>
       </c>
@@ -6210,16 +5664,16 @@
         <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>508</v>
+        <v>326</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>509</v>
+        <v>327</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1962</v>
       </c>
@@ -6227,16 +5681,16 @@
         <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>511</v>
+        <v>329</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>512</v>
+        <v>330</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1961</v>
       </c>
@@ -6244,16 +5698,16 @@
         <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>514</v>
+        <v>332</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>515</v>
+        <v>333</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1960</v>
       </c>
@@ -6261,13 +5715,13 @@
         <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>517</v>
+        <v>335</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>518</v>
+        <v>336</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>519</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6283,193 +5737,193 @@
       <selection activeCell="C9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2002</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2000</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>540</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6485,703 +5939,703 @@
       <selection sqref="A1:C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.9296875" customWidth="1"/>
-    <col min="3" max="3" width="15.46484375" customWidth="1"/>
+    <col min="2" max="2" width="13.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>541</v>
+        <v>359</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>543</v>
+        <v>361</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>545</v>
+        <v>363</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>547</v>
+        <v>365</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>549</v>
+        <v>367</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>551</v>
+        <v>369</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>553</v>
+        <v>371</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>555</v>
+        <v>373</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>557</v>
+        <v>375</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>559</v>
+        <v>377</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>561</v>
+        <v>379</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>562</v>
+        <v>380</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>564</v>
+        <v>382</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>566</v>
+        <v>384</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>568</v>
+        <v>386</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>570</v>
+        <v>388</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>571</v>
+        <v>389</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>572</v>
+        <v>390</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>574</v>
+        <v>392</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>576</v>
+        <v>394</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2002</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>578</v>
+        <v>396</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>580</v>
+        <v>398</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2000</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>582</v>
+        <v>400</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1999</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>584</v>
+        <v>402</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1998</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>586</v>
+        <v>404</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1997</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>587</v>
+        <v>405</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1996</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>589</v>
+        <v>407</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1995</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>591</v>
+        <v>409</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1994</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>593</v>
+        <v>411</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1993</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>595</v>
+        <v>413</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1992</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>597</v>
+        <v>415</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1991</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>599</v>
+        <v>417</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1990</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>601</v>
+        <v>419</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1989</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>603</v>
+        <v>421</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>1988</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>603</v>
+        <v>421</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>1987</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>606</v>
+        <v>424</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>1986</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>608</v>
+        <v>426</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1985</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>610</v>
+        <v>428</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>1984</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>612</v>
+        <v>430</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>1983</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>614</v>
+        <v>432</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>1982</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>616</v>
+        <v>434</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>1981</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>618</v>
+        <v>436</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1980</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>620</v>
+        <v>438</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>1979</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>622</v>
+        <v>440</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>1978</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>624</v>
+        <v>442</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>1977</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>626</v>
+        <v>444</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>1976</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>628</v>
+        <v>446</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>1975</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>630</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>1974</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>632</v>
+        <v>450</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>1973</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>634</v>
+        <v>452</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>1972</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>636</v>
+        <v>454</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>1971</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>638</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>1970</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>640</v>
+        <v>458</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>1969</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>642</v>
+        <v>460</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>1968</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>644</v>
+        <v>462</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>1967</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>646</v>
+        <v>464</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>1966</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>648</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>1965</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>650</v>
+        <v>468</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>1964</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>652</v>
+        <v>470</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>1963</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>654</v>
+        <v>472</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>1962</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>656</v>
+        <v>474</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>1961</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>658</v>
+        <v>476</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>1960</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>660</v>
+        <v>478</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>661</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -7197,106 +6651,106 @@
       <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.796875" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.265625" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" customWidth="1"/>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>662</v>
+        <v>480</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>663</v>
+        <v>481</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>664</v>
+        <v>482</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>665</v>
+        <v>483</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>666</v>
+        <v>484</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2015</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>668</v>
+        <v>486</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>669</v>
+        <v>487</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>670</v>
+        <v>488</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>671</v>
+        <v>489</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>672</v>
+        <v>490</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2014</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>668</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>674</v>
+        <v>492</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>675</v>
+        <v>493</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>676</v>
+        <v>494</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>677</v>
+        <v>495</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2013</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>679</v>
+        <v>497</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>680</v>
+        <v>498</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>681</v>
+        <v>499</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>682</v>
+        <v>500</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>683</v>
+        <v>501</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>684</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -7308,376 +6762,376 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABF2A1C-BC50-4D16-8611-724AC95152C0}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>685</v>
+        <v>503</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>687</v>
+        <v>505</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>689</v>
+        <v>507</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2019</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>691</v>
+        <v>509</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2018</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>689</v>
+        <v>507</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2017</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>694</v>
+        <v>512</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>696</v>
+        <v>514</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2015</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>697</v>
+        <v>515</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2014</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>699</v>
+        <v>517</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2013</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>701</v>
+        <v>519</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>2012</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>703</v>
+        <v>521</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>705</v>
+        <v>523</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2010</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>706</v>
+        <v>524</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>708</v>
+        <v>526</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2008</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>709</v>
+        <v>527</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>2007</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>710</v>
+        <v>528</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>711</v>
+        <v>529</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>2005</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>712</v>
+        <v>530</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>2004</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>714</v>
+        <v>532</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>2003</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>715</v>
+        <v>533</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>2002</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>716</v>
+        <v>534</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>718</v>
+        <v>536</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>2000</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>720</v>
+        <v>538</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1999</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>721</v>
+        <v>539</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1998</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>722</v>
+        <v>540</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1997</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>724</v>
+        <v>542</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1996</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>725</v>
+        <v>543</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1995</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>726</v>
+        <v>544</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1994</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>727</v>
+        <v>545</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1993</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>728</v>
+        <v>546</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1992</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>729</v>
+        <v>547</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1991</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>730</v>
+        <v>548</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>1990</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>732</v>
+        <v>550</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>731</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
